--- a/biology/Botanique/Pachypleurum_mutellinoides/Pachypleurum_mutellinoides.xlsx
+++ b/biology/Botanique/Pachypleurum_mutellinoides/Pachypleurum_mutellinoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pachypleurum mutellinoides, de nom commun Ligustique fausse mutelline, Pachypleure fausse mutelline, Ligustique naine[2], est une espèce eurasiatique de plante de la famille des Apiaceae et du genre Pachypleurum (sv).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pachypleurum mutellinoides, de nom commun Ligustique fausse mutelline, Pachypleure fausse mutelline, Ligustique naine, est une espèce eurasiatique de plante de la famille des Apiaceae et du genre Pachypleurum (sv).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachypleurum mutellinoides est une plante herbacée hémicryptophyte qui atteint généralement des hauteurs de 5 à 15 cm, rarement jusqu'à 20 cm. La base de la tige est recouverte de restes de feuilles brunes, mais n'a pas de touffe de fibres. Les feuilles basales ont un contour ovale allongé, avec deux ou trois pennes, avec des extrémités de feuilles linéaires. Habituellement, aucune feuille caulinaire n'est présente ou au plus une.
 La période de floraison est de juillet à août. L'inflorescence terminale à double ombelle compte 8 à 20 rayons. Les cinq à dix bractées durables ont un à trois pennes et aussi longues que les rayons de l'ombelle. Les bractées sont nombreuses. Les fleurs sont quintuples. Les pétales sont roses ou blancs.
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire disjointe de Pachypleurum mutellinoides comprend en Europe la France, l'Italie, la Suisse, l'Allemagne, la Pologne, la Slovaquie, l'ex-Yougoslavie et la Roumanie, les parties nord et est de la Russie européenne, en Asie l'ouest de la Sibérie, le sud-est du Kazakhstan et le nord du Xinjiang.
 En Europe centrale, elle pousse principalement à des altitudes comprises entre 1 800 m et 2 800 m mètres.
@@ -578,9 +594,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La feuille a pour parasites Protomyces macrosporus et Puccinia thomasii[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille a pour parasites Protomyces macrosporus et Puccinia thomasii.
 </t>
         </is>
       </c>
